--- a/biology/Médecine/Pandémie_de_Covid-19_par_pays_et_territoire/Pandémie_de_Covid-19_par_pays_et_territoire.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_par_pays_et_territoire/Pandémie_de_Covid-19_par_pays_et_territoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les pays du monde, 99,3 % ont été affectés par la pandémie de Covid-19, la « maladie à coronavirus 2019 » qui sévit depuis la fin de l'année 2019. Cet article présente la situation, par continent puis par pays ou territoire.
 Début novembre 2020, la maladie à coronavirus avait affecté 204 pays et territoires à travers le monde ainsi que deux navires de croisière, les Diamond Princess et MS Zaandam, ces derniers au début de la pandémie.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,63 +526,61 @@
           <t>Détail des cas par pays</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nombre des personnes décomptées contaminées ou tuées par la pandémie de coronavirus commencée en 2019 est publié hebdomadairement ou quotidiennement par différentes sources qui peuvent utiliser des méthodes différentes de recoupement ou d'actualisation. De ce fait les données peuvent légèrement varier selon l'heure et la méthode utilisée.
-Liste des régions et villes les plus touchées
-Si différents pays sont touchés, la maladie ne se propage pas identiquement à l'intérieur de chaque pays, et certaines villes ou régions — suivant la granularité des statistiques — présentent des points d'intérêt plus précis que la granularité au niveau du pays.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Détail des cas par pays</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des régions et villes les plus touchées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si différents pays sont touchés, la maladie ne se propage pas identiquement à l'intérieur de chaque pays, et certaines villes ou régions — suivant la granularité des statistiques — présentent des points d'intérêt plus précis que la granularité au niveau du pays.
 En Amérique, les villes les plus touchées sont :
 au Brésil, Manaus, Fortaleza, Rio de Janeiro et São Paulo, qui comptent plus de la moitié de la mortalité du pays ;
 en Amérique du Nord, New York, Détroit, Montréal, Boston et Toronto, et leurs alentours.
 En Europe, parmi les principales régions touchées au moment du confinement, on trouve :
-en Italie, la Lombardie avec près de la moitié des décès italiens[2] ;
+en Italie, la Lombardie avec près de la moitié des décès italiens ;
 en France, l'Île-de-France et le Grand Est, avec 39 % et 19 % des décès français ;
-en Espagne, la communauté de Madrid (33 % des décès espagnols) et la Catalogne (21 % des décès espagnols)[3],[4] ;
+en Espagne, la communauté de Madrid (33 % des décès espagnols) et la Catalogne (21 % des décès espagnols), ;
 en Allemagne, la Bavière, la Rhénanie-du-Nord-Westphalie et le Bade-Wurtemberg ;
 en Belgique, la région de Bruxelles-Capitale.
 En Asie :
 en Iran, Téhéran et Ispahan, toutes deux dotées d'un réseau de métro, sont les villes les plus touchées, avec un tiers des cas de maladie ;
 en Chine, Wuhan est la ville la plus touchée.
 Les villes et régions les plus touchées sont souvent de taille importante, avec un réseau de métro.
-Lieux spécifiques
-En dehors des grandes villes, certains bateaux et abattoirs ont également été des lieux de transmission de la Covid-19, en France, en Allemagne et aux États-Unis[24].
-Les mines sont également un lieu où l'épidémie frappe[25].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Liste de pays et territoires officiellement indemnes de la Covid-19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste[26],[27] découle des informations officielles sur les pays contaminés par le virus SARS-CoV-2.
-Certains pays cependant font l'objet de doutes quant à la fiabilité de leur information par la nature dictatoriale de leur régime (Corée du Nord, Turkménistan), le manque de tests et la proximité avec des pays infectés. Si en Corée du Nord, la KCNA va jusqu'à rapporter un cas suspect dans la ville frontalière de Kaesŏng, le résultat du test est qualifié par la suite d'incertain[28].
-Ce n'est pas forcément le cas des pays d'Océanie, nations insulaires, qui, bien que n'effectuant pas de dépistage au printemps[29], sont relativement épargnés de par leur isolement à la fois vers l'extérieur avec la fermeture des frontières mais aussi en intérieur.
-En 2021, les Tonga[30], Palaos[31] et les Samoa américaines[32] enregistrent leurs premiers cas depuis le début de la pandémie. L'île de Norfolk est touché le 30 décembre 2021[33]
-En 2022, les Kiribati[34] et les États associés néo-zélandais des Îles Cook[35] et Niue[36] enregistrent des cas. Nauru[37] est également touché en avril. La Corée du Nord signale son premier cas en mai[38].
-L'Antarctique, non habité de façon permanente, est le dernier continent atteint par la pandémie[41] ; les premiers cas sont confirmés fin décembre 2020[42].
 </t>
         </is>
       </c>
@@ -581,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,13 +606,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chronologie</t>
+          <t>Détail des cas par pays</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2021 le 12 novembre, le bilan est de 251 millions de malades et de 5 millions de morts.
-En 2021 le 11 novembre, 7 milliards de doses de vaccins ont été injectées[43].
+          <t>Lieux spécifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dehors des grandes villes, certains bateaux et abattoirs ont également été des lieux de transmission de la Covid-19, en France, en Allemagne et aux États-Unis.
+Les mines sont également un lieu où l'épidémie frappe.
 </t>
         </is>
       </c>
@@ -613,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,42 +644,294 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste de pays et territoires officiellement indemnes de la Covid-19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste, découle des informations officielles sur les pays contaminés par le virus SARS-CoV-2.
+Certains pays cependant font l'objet de doutes quant à la fiabilité de leur information par la nature dictatoriale de leur régime (Corée du Nord, Turkménistan), le manque de tests et la proximité avec des pays infectés. Si en Corée du Nord, la KCNA va jusqu'à rapporter un cas suspect dans la ville frontalière de Kaesŏng, le résultat du test est qualifié par la suite d'incertain.
+Ce n'est pas forcément le cas des pays d'Océanie, nations insulaires, qui, bien que n'effectuant pas de dépistage au printemps, sont relativement épargnés de par leur isolement à la fois vers l'extérieur avec la fermeture des frontières mais aussi en intérieur.
+En 2021, les Tonga, Palaos et les Samoa américaines enregistrent leurs premiers cas depuis le début de la pandémie. L'île de Norfolk est touché le 30 décembre 2021
+En 2022, les Kiribati et les États associés néo-zélandais des Îles Cook et Niue enregistrent des cas. Nauru est également touché en avril. La Corée du Nord signale son premier cas en mai.
+L'Antarctique, non habité de façon permanente, est le dernier continent atteint par la pandémie ; les premiers cas sont confirmés fin décembre 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021 le 12 novembre, le bilan est de 251 millions de malades et de 5 millions de morts.
+En 2021 le 11 novembre, 7 milliards de doses de vaccins ont été injectées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Évolution par continent</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Évolution du nombre de cas (OMS)
-Évolution du nombre de décès (ECDC)
-Source ECDC[45]
-Source ECDC[46]
-Afrique
-Le premier cas confirmé en Afrique a été révélé en Égypte le 14 février 2020, à l'aéroport international du Caire, impliquant un ressortissant chinois[47],[48]. Deux semaines plus tard, l'Afrique subsaharienne est touchée avec un cas confirmé le 28 février au Nigeria[49]. En Algérie, les autorités de santé ont notifié un cas confirmé de Covid-19 le 25 février[50] : il s'agit d'un cas importé par un ressortissant italien arrivé en Algérie le 17 février.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Évolution du nombre de décès (ECDC)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Source ECDC
+Source ECDC
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Évolution par continent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas confirmé en Afrique a été révélé en Égypte le 14 février 2020, à l'aéroport international du Caire, impliquant un ressortissant chinois,. Deux semaines plus tard, l'Afrique subsaharienne est touchée avec un cas confirmé le 28 février au Nigeria. En Algérie, les autorités de santé ont notifié un cas confirmé de Covid-19 le 25 février : il s'agit d'un cas importé par un ressortissant italien arrivé en Algérie le 17 février.
 Le Lesotho et les Comores sont les deux derniers pays à avoir été officiellement contaminés par la Covid-19. Le Maghreb est un des foyers principaux[Quand ?] avec 3 683 cas positifs et 357 décès sur les trois pays Maroc, Algérie et Tunisie ; l'autre foyer est l'Afrique du Sud avec presque 2 000 cas positifs.
 Avec un premier cas enregistré au Lesotho le 13 mai 2020, l'ensemble du continent est affecté par la pandémie.
-À l'automne 2020, l’Afrique subsaharienne — où l'on redoutait une catastrophe humanitaire du fait d’infrastructures de santé moins développées — s'avère relativement moins touchée par l’épidémie que les pays développés. Matshidiso Moeti, la directrice régionale Afrique de l'OMS, analyse la situation par l'efficacité des mesures prises, la jeunesse de la population et par le fait que les Africains ont moins d'échanges avec le reste du monde et se déplacent moins en général[51]. De plus, selon la Pr Francisca Mutapi, les Africains généralement vivent plus en plein air qu'en milieux confinés[52].
-Amérique
-Le premier cas positif au SARS-CoV-2 est enregistré le 21 janvier 2020 aux États-Unis concernant un homme d'une trentaine d'années, originaire de l'État de Washington et hospitalisé à Everett, qui avait récemment voyagé en Chine[53] suivi quatre jours plus tard par le Canada. Un mois plus tard, le Brésil est le premier pays d'Amérique du Sud touché avec un cas confirmé le 25 février. Les cas se répandent à partir de mars à l'ensemble du continent, Antilles comprises.
-Les États-Unis, pays le plus peuplé, concentre la majorité des cas de contamination avec 276 décès au 23 mars pour plus de 44 000 cas confirmés (soit 80 % des cas en Amérique). Le 29 février, le premier décès signalé concerne une femme âgée d'une cinquantaine d'années qui a succombé au virus dans l'État de Washington[54] ; un Américain était déjà mort début février des suites de la Covid-19, mais à Wuhan, en Chine.
+À l'automne 2020, l’Afrique subsaharienne — où l'on redoutait une catastrophe humanitaire du fait d’infrastructures de santé moins développées — s'avère relativement moins touchée par l’épidémie que les pays développés. Matshidiso Moeti, la directrice régionale Afrique de l'OMS, analyse la situation par l'efficacité des mesures prises, la jeunesse de la population et par le fait que les Africains ont moins d'échanges avec le reste du monde et se déplacent moins en général. De plus, selon la Pr Francisca Mutapi, les Africains généralement vivent plus en plein air qu'en milieux confinés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Évolution par continent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas positif au SARS-CoV-2 est enregistré le 21 janvier 2020 aux États-Unis concernant un homme d'une trentaine d'années, originaire de l'État de Washington et hospitalisé à Everett, qui avait récemment voyagé en Chine suivi quatre jours plus tard par le Canada. Un mois plus tard, le Brésil est le premier pays d'Amérique du Sud touché avec un cas confirmé le 25 février. Les cas se répandent à partir de mars à l'ensemble du continent, Antilles comprises.
+Les États-Unis, pays le plus peuplé, concentre la majorité des cas de contamination avec 276 décès au 23 mars pour plus de 44 000 cas confirmés (soit 80 % des cas en Amérique). Le 29 février, le premier décès signalé concerne une femme âgée d'une cinquantaine d'années qui a succombé au virus dans l'État de Washington ; un Américain était déjà mort début février des suites de la Covid-19, mais à Wuhan, en Chine.
 Au 25 mars, deux cas de contaminations sont signalés à Saint-Christophe-et-Niévès, ce qui fait qu'aucun pays d'Amérique n'est alors épargné par la pandémie à l'exception de quelques dépendances.
-Les États-Unis sont le pays où la pandémie progresse le plus rapidement. Le 26 mars, ils dépassent la Chine, d'où l'épidémie est partie en décembre, et l'Italie, épicentre en Europe, pour devenir le pays le plus touché par le coronavirus. Au 31 mars, le nombre de cas aux États-Unis s'élève à plus de 164 000 dont plus de 3 000 décès. Au 22 novembre 2020, les États-Unis envisagent lancer une campagne de vaccination contre le Covid-19 le plus tôt possible dès le consentement des autorités sanitaire[55].
-Le Brésil est le second pays qui a enregistré le plus de décès dans le monde. Sa situation ne s’est toujours pas améliorée pour le moment. Le nombre d’hospitalisation ne cesse d’augmenter, on appréhende une seconde vague comme en Europe[56].
-Asie
-Le premier cas de Covid-19 en Asie et dans le monde a été détecté à Wuhan et s'est finalement propagé au reste de la Chine. Par la suite, de nombreux autres pays asiatiques ont commencé à confirmer des cas, certains des pays les plus touchés étant la Corée du Sud, la Malaisie et l'Iran.
-La Corée du Sud et Taïwan ont été parmi les premiers pays à signaler des cas de Covid-19 après l'épidémie en Chine, mais ces pays ont contenu l'épidémie avec un certain succès[57].
-Au 10 avril, seuls la Corée du Nord, le Tadjikistan et le Turkménistan n'ont officiellement pas de cas de contamination officiellement enregistré, malgré de fortes suspicions internationales[58].
-Au 20 avril, si la Chine reste un des foyers principaux en Asie avec 84 201 cas positifs et 4 642 décès, la Turquie et l'Iran ont désormais autant de cas malgré une population bien inférieure. Plusieurs sources mettent en doute la véracité des décomptes en Chine[59].
-Europe
-Le premier cas de Covid-19 en Europe a été détecté le 25 janvier en France, un homme de 80 ans de la province du Hubei, décédé plus tard le 15 février[60]. Le 14 février, un touriste chinois est décédé à Paris, considéré comme le premier décès de Covid-19 en dehors de l'Asie[61], mais il a été découvert plus tard qu'un homme décédé dans la ville espagnole de Valence le 13 février avait également été infecté par un coronavirus qu'il avait contracté au Népal[62].
-Les premiers cas ont été signalés en France, en Allemagne et dans d'autres pays avec un nombre relativement faible de cas. Le 21 février, une importante épidémie a été signalée en Italie, principalement dans le nord, près de Milan[63]. Les cas ont rapidement augmenté et, le 13 mars, après que l'Asie ait été le centre de l'épidémie, l'Europe est devenue selon l'OMS le nouveau foyer central de l'épidémie devenue pandémie[64]. Ensuite, le nombre de cas dans chaque pays européen a augmenté, doublé en deux à quatre jours[65].
-Le 10 mars, les 27 chefs d'État et de gouvernement de l'Union européenne se « réunissent » par visioconférence et annoncent plusieurs mesures destinées à soutenir l'économie et endiguer l'épidémie, dont la création d'un fonds de 25 milliards d'euros destiné à permettre aux États-membres de « soutenir, notamment, leur système de santé, les PME en difficulté ou les travailleurs que l'épidémie a provisoirement mis au chômage[66] ».
-À défaut d'une politique sanitaire commune, la santé ne faisant pas partie des compétences communautaires, la seule réponse à la crise est économique. Toutefois, Thierry Breton, commissaire au Marché intérieur, est chargé de faire un état des lieux des besoins en équipements sanitaires et de réfléchir à une distribution intelligente en fonction des besoins, pays par pays[67].
-Le 16 mars, Thierry Breton annonce que l'Union européenne anticipe une récession pour 2020, estimant que « bien entendu » les pays européens pourraient s'affranchir momentanément des règles du pacte de stabilité et de croissance européen pour faire face à la crise, comme le prévoient les textes[68].
-Le 19 mars, pour tenter d'apaiser les marchés financiers, la Banque centrale européenne annonce qu'elle va débloquer 750 milliards d'euros pour le rachat des dettes des pays européens[69].
+Les États-Unis sont le pays où la pandémie progresse le plus rapidement. Le 26 mars, ils dépassent la Chine, d'où l'épidémie est partie en décembre, et l'Italie, épicentre en Europe, pour devenir le pays le plus touché par le coronavirus. Au 31 mars, le nombre de cas aux États-Unis s'élève à plus de 164 000 dont plus de 3 000 décès. Au 22 novembre 2020, les États-Unis envisagent lancer une campagne de vaccination contre le Covid-19 le plus tôt possible dès le consentement des autorités sanitaire.
+Le Brésil est le second pays qui a enregistré le plus de décès dans le monde. Sa situation ne s’est toujours pas améliorée pour le moment. Le nombre d’hospitalisation ne cesse d’augmenter, on appréhende une seconde vague comme en Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Évolution par continent</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas de Covid-19 en Asie et dans le monde a été détecté à Wuhan et s'est finalement propagé au reste de la Chine. Par la suite, de nombreux autres pays asiatiques ont commencé à confirmer des cas, certains des pays les plus touchés étant la Corée du Sud, la Malaisie et l'Iran.
+La Corée du Sud et Taïwan ont été parmi les premiers pays à signaler des cas de Covid-19 après l'épidémie en Chine, mais ces pays ont contenu l'épidémie avec un certain succès.
+Au 10 avril, seuls la Corée du Nord, le Tadjikistan et le Turkménistan n'ont officiellement pas de cas de contamination officiellement enregistré, malgré de fortes suspicions internationales.
+Au 20 avril, si la Chine reste un des foyers principaux en Asie avec 84 201 cas positifs et 4 642 décès, la Turquie et l'Iran ont désormais autant de cas malgré une population bien inférieure. Plusieurs sources mettent en doute la véracité des décomptes en Chine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Évolution par continent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas de Covid-19 en Europe a été détecté le 25 janvier en France, un homme de 80 ans de la province du Hubei, décédé plus tard le 15 février. Le 14 février, un touriste chinois est décédé à Paris, considéré comme le premier décès de Covid-19 en dehors de l'Asie, mais il a été découvert plus tard qu'un homme décédé dans la ville espagnole de Valence le 13 février avait également été infecté par un coronavirus qu'il avait contracté au Népal.
+Les premiers cas ont été signalés en France, en Allemagne et dans d'autres pays avec un nombre relativement faible de cas. Le 21 février, une importante épidémie a été signalée en Italie, principalement dans le nord, près de Milan. Les cas ont rapidement augmenté et, le 13 mars, après que l'Asie ait été le centre de l'épidémie, l'Europe est devenue selon l'OMS le nouveau foyer central de l'épidémie devenue pandémie. Ensuite, le nombre de cas dans chaque pays européen a augmenté, doublé en deux à quatre jours.
+Le 10 mars, les 27 chefs d'État et de gouvernement de l'Union européenne se « réunissent » par visioconférence et annoncent plusieurs mesures destinées à soutenir l'économie et endiguer l'épidémie, dont la création d'un fonds de 25 milliards d'euros destiné à permettre aux États-membres de « soutenir, notamment, leur système de santé, les PME en difficulté ou les travailleurs que l'épidémie a provisoirement mis au chômage ».
+À défaut d'une politique sanitaire commune, la santé ne faisant pas partie des compétences communautaires, la seule réponse à la crise est économique. Toutefois, Thierry Breton, commissaire au Marché intérieur, est chargé de faire un état des lieux des besoins en équipements sanitaires et de réfléchir à une distribution intelligente en fonction des besoins, pays par pays.
+Le 16 mars, Thierry Breton annonce que l'Union européenne anticipe une récession pour 2020, estimant que « bien entendu » les pays européens pourraient s'affranchir momentanément des règles du pacte de stabilité et de croissance européen pour faire face à la crise, comme le prévoient les textes.
+Le 19 mars, pour tenter d'apaiser les marchés financiers, la Banque centrale européenne annonce qu'elle va débloquer 750 milliards d'euros pour le rachat des dettes des pays européens.
 Au 17 mars, tous les pays européens ont signalé au moins un cas de Covid-19 (le Monténégro étant le dernier à le faire), et tous les territoires également avec des cas signalés sur l'île de Man le 19 mars, la Transnistrie le 21 mars et Åland le 22 mars. Aucun cas n'a été signalé à Svalbard, Aurigny et Sercq. Tous les pays ont également enregistré au moins un décès sauf au Vatican.
-En Europe, les études sérologiques estiment, fin mai 2020, que de 5 à 10 % de la population a été infectée au coronavirus en France, au Royaume-Uni et en Espagne. Ce taux monte à plus de 50% pour la ville de Bergame en Italie, très touchée[70].
-Océanie
-Le premier cas positif au SARS-CoV-2 est enregistré le 25 janvier 2020 à Victoria, en Australie : il concerne un Chinois arrivé de Canton le 19 janvier suivi par trois autres patients testés positifs à Sydney après leur retour de Wuhan. L'Océanie étant constitué de myriade d'îles, ces dernières sont plus isolées mais avec un vrai risque de contamination si le virus est importé.
+En Europe, les études sérologiques estiment, fin mai 2020, que de 5 à 10 % de la population a été infectée au coronavirus en France, au Royaume-Uni et en Espagne. Ce taux monte à plus de 50% pour la ville de Bergame en Italie, très touchée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_par_pays_et_territoire</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Évolution par continent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Océanie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas positif au SARS-CoV-2 est enregistré le 25 janvier 2020 à Victoria, en Australie : il concerne un Chinois arrivé de Canton le 19 janvier suivi par trois autres patients testés positifs à Sydney après leur retour de Wuhan. L'Océanie étant constitué de myriade d'îles, ces dernières sont plus isolées mais avec un vrai risque de contamination si le virus est importé.
 L'Australie, pays le plus peuplé, concentre la majorité des cas de contamination ; le 1er mars, le premier décès signalé concerne un Australien de 78 ans, qui était un passager du Diamond Princess.
 Au 26 mars, les pays les plus touchés sont l'Australie (2 800 cas), la Nouvelle-Zélande (155 cas) et, de façon plus faible, les Fidji et la Papouasie-Nouvelle-Guinée. Les territoires de Guam, Nouvelle-Calédonie et Polynésie française présentent aussi quelques cas.
 </t>
